--- a/__repository/template/temp_mcr.xlsx
+++ b/__repository/template/temp_mcr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TEMPLATE UPLOAD MCR</t>
   </si>
@@ -102,13 +102,22 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>2GNEW0001</t>
+  </si>
+  <si>
+    <t>2GNEW0002</t>
+  </si>
+  <si>
+    <t>2GNEW0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +166,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -191,19 +205,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -214,11 +223,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,96 +534,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:25" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7">
+        <v>42653</v>
+      </c>
+      <c r="J6" s="7">
+        <v>42654</v>
+      </c>
+      <c r="K6" s="7">
+        <v>42655</v>
+      </c>
+      <c r="L6" s="7">
+        <v>42656</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42657</v>
+      </c>
+      <c r="N6" s="7">
+        <v>42658</v>
+      </c>
+      <c r="O6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="P6" s="7">
+        <v>42660</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>42661</v>
+      </c>
+      <c r="R6" s="7">
+        <v>42662</v>
+      </c>
+      <c r="S6" s="7">
+        <v>42663</v>
+      </c>
+      <c r="T6" s="7">
+        <v>42664</v>
+      </c>
+      <c r="U6" s="7">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7">
+        <v>42654</v>
+      </c>
+      <c r="J7" s="7">
+        <v>42655</v>
+      </c>
+      <c r="K7" s="7">
+        <v>42656</v>
+      </c>
+      <c r="L7" s="7">
+        <v>42657</v>
+      </c>
+      <c r="M7" s="7">
+        <v>42658</v>
+      </c>
+      <c r="N7" s="7">
+        <v>42659</v>
+      </c>
+      <c r="O7" s="7">
+        <v>42660</v>
+      </c>
+      <c r="P7" s="7">
+        <v>42661</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>42662</v>
+      </c>
+      <c r="R7" s="7">
+        <v>42663</v>
+      </c>
+      <c r="S7" s="7">
+        <v>42664</v>
+      </c>
+      <c r="T7" s="7">
+        <v>42665</v>
+      </c>
+      <c r="U7" s="7">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7">
+        <v>42655</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42656</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42657</v>
+      </c>
+      <c r="L8" s="7">
+        <v>42658</v>
+      </c>
+      <c r="M8" s="7">
+        <v>42659</v>
+      </c>
+      <c r="N8" s="7">
+        <v>42660</v>
+      </c>
+      <c r="O8" s="7">
+        <v>42661</v>
+      </c>
+      <c r="P8" s="7">
+        <v>42662</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>42663</v>
+      </c>
+      <c r="R8" s="7">
+        <v>42664</v>
+      </c>
+      <c r="S8" s="7">
+        <v>42665</v>
+      </c>
+      <c r="T8" s="7">
+        <v>42666</v>
+      </c>
+      <c r="U8" s="7">
+        <v>42667</v>
       </c>
     </row>
   </sheetData>

--- a/__repository/template/temp_mcr.xlsx
+++ b/__repository/template/temp_mcr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nokia\__repository\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTWARE 2015\POIN NEW 2016\Template POIN Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,35 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>TEMPLATE UPLOAD MCR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>boqno</t>
-  </si>
-  <si>
-    <t>siteid</t>
-  </si>
-  <si>
-    <t>sitename</t>
-  </si>
-  <si>
     <t>SOW Category</t>
   </si>
   <si>
-    <t>sitetstatus</t>
-  </si>
-  <si>
-    <t>regioncode</t>
-  </si>
-  <si>
-    <t>nename</t>
-  </si>
-  <si>
     <t>Alarm Submit</t>
   </si>
   <si>
@@ -92,32 +71,165 @@
     <t>MCR Exit</t>
   </si>
   <si>
-    <t>Indosat PIC</t>
-  </si>
-  <si>
-    <t>updateby</t>
-  </si>
-  <si>
-    <t>updateat</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>2GNEW0001</t>
-  </si>
-  <si>
-    <t>2GNEW0002</t>
-  </si>
-  <si>
-    <t>2GNEW0003</t>
+    <t>BOQ No</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Site Status</t>
+  </si>
+  <si>
+    <t>Region Code</t>
+  </si>
+  <si>
+    <t>NE Name</t>
+  </si>
+  <si>
+    <t>POIN v2</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>check master site info</t>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>SITE_NAME</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>WBS_STATUS</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>MCR_000040</t>
+  </si>
+  <si>
+    <t>Exit MCR</t>
+  </si>
+  <si>
+    <t>MCR_000040_AF</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Update By</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Upload ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tambahan</t>
+  </si>
+  <si>
+    <t>please ignore blank</t>
+  </si>
+  <si>
+    <t>Actual
+Finish</t>
+  </si>
+  <si>
+    <t>ON AIR Date</t>
+  </si>
+  <si>
+    <t>ON AIR Unlock</t>
+  </si>
+  <si>
+    <t>MCR_ISSUES</t>
+  </si>
+  <si>
+    <t>MCR_PIC</t>
+  </si>
+  <si>
+    <t>free text</t>
+  </si>
+  <si>
+    <t>74. Alarm Log</t>
+  </si>
+  <si>
+    <t>73. PMR</t>
+  </si>
+  <si>
+    <t>71. RSSI</t>
+  </si>
+  <si>
+    <t>70. SSV SR</t>
+  </si>
+  <si>
+    <t>70. SSV FR</t>
+  </si>
+  <si>
+    <t>MCR_000010_AF</t>
+  </si>
+  <si>
+    <t>Functional Test</t>
+  </si>
+  <si>
+    <t>MCR_000010</t>
+  </si>
+  <si>
+    <t>MCR_000020_AF</t>
+  </si>
+  <si>
+    <t>Performance Report</t>
+  </si>
+  <si>
+    <t>MCR_000020</t>
+  </si>
+  <si>
+    <t>MCR_000030_AF</t>
+  </si>
+  <si>
+    <t>Alarm Clearance</t>
+  </si>
+  <si>
+    <t>MCR_000030</t>
+  </si>
+  <si>
+    <t>TEMPLATE UPLOAD MASTER SITE MCR EXIT</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Phase Name</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>xx. Others3</t>
+  </si>
+  <si>
+    <t>xx. Others4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +283,31 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,13 +330,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -211,25 +385,48 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -513,255 +710,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:U8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="25" width="10" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="37" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="M1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42705</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
-    <row r="5" spans="1:25" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>25</v>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42653</v>
-      </c>
-      <c r="J6" s="7">
-        <v>42654</v>
-      </c>
-      <c r="K6" s="7">
-        <v>42655</v>
-      </c>
-      <c r="L6" s="7">
-        <v>42656</v>
-      </c>
-      <c r="M6" s="7">
-        <v>42657</v>
-      </c>
-      <c r="N6" s="7">
-        <v>42658</v>
-      </c>
-      <c r="O6" s="7">
-        <v>42659</v>
-      </c>
-      <c r="P6" s="7">
-        <v>42660</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>42661</v>
-      </c>
-      <c r="R6" s="7">
-        <v>42662</v>
-      </c>
-      <c r="S6" s="7">
-        <v>42663</v>
-      </c>
-      <c r="T6" s="7">
-        <v>42664</v>
-      </c>
-      <c r="U6" s="7">
-        <v>42665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42654</v>
-      </c>
-      <c r="J7" s="7">
-        <v>42655</v>
-      </c>
-      <c r="K7" s="7">
-        <v>42656</v>
-      </c>
-      <c r="L7" s="7">
-        <v>42657</v>
-      </c>
-      <c r="M7" s="7">
-        <v>42658</v>
-      </c>
-      <c r="N7" s="7">
-        <v>42659</v>
-      </c>
-      <c r="O7" s="7">
-        <v>42660</v>
-      </c>
-      <c r="P7" s="7">
-        <v>42661</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>42662</v>
-      </c>
-      <c r="R7" s="7">
-        <v>42663</v>
-      </c>
-      <c r="S7" s="7">
-        <v>42664</v>
-      </c>
-      <c r="T7" s="7">
-        <v>42665</v>
-      </c>
-      <c r="U7" s="7">
-        <v>42666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7">
-        <v>42655</v>
-      </c>
-      <c r="J8" s="7">
-        <v>42656</v>
-      </c>
-      <c r="K8" s="7">
-        <v>42657</v>
-      </c>
-      <c r="L8" s="7">
-        <v>42658</v>
-      </c>
-      <c r="M8" s="7">
-        <v>42659</v>
-      </c>
-      <c r="N8" s="7">
-        <v>42660</v>
-      </c>
-      <c r="O8" s="7">
-        <v>42661</v>
-      </c>
-      <c r="P8" s="7">
-        <v>42662</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>42663</v>
-      </c>
-      <c r="R8" s="7">
-        <v>42664</v>
-      </c>
-      <c r="S8" s="7">
-        <v>42665</v>
-      </c>
-      <c r="T8" s="7">
-        <v>42666</v>
-      </c>
-      <c r="U8" s="7">
-        <v>42667</v>
-      </c>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>